--- a/target/classes/ticket/excel/ticket_input.xlsx
+++ b/target/classes/ticket/excel/ticket_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\ticket\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1C2BDD-7C3D-45D4-B935-5BE76704017F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5A73C1-2E7E-45C7-BD5E-C83017638D50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -261,7 +261,7 @@
     <t>28/07/2017</t>
   </si>
   <si>
-    <t>provider modalitÃ  updater</t>
+    <t>provider modalità updater</t>
   </si>
   <si>
     <t>08/05/2017</t>
@@ -540,7 +540,7 @@
     <t>29/08/2018</t>
   </si>
   <si>
-    <t>possibilitÃ  download log da pagina debug</t>
+    <t>possibilità download log da pagina debug</t>
   </si>
   <si>
     <t>Chiamata REST per GoToWebinar per Lancini Ste</t>
@@ -591,7 +591,7 @@
     <t>15/09/2018</t>
   </si>
   <si>
-    <t>log salvare i messaggi piÃ¹ lunghi di 64kb su file</t>
+    <t>log salvare i messaggi più lunghi di 64kb su file</t>
   </si>
   <si>
     <t>Rilascio Smeup Provider in Linux</t>
@@ -600,7 +600,7 @@
     <t>11/06/2018</t>
   </si>
   <si>
-    <t>funzionalitÃ  e componenti da portare in WebUP</t>
+    <t>funzionalità e componenti da portare in WebUP</t>
   </si>
   <si>
     <t>18/01/2018</t>
